--- a/pred_ohlcv/54_21/2019-10-28 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 VALOR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>12026.7989</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>12026.7989</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -548,7 +548,7 @@
         <v>12564.9402</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>12083.7052</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>12193.0268</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,7 +756,7 @@
         <v>12195.0268</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>12195.0268</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>9817.508299999998</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>9563.320599999997</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>10243.2962</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>10050.8962</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>10050.8962</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>10050.8962</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>10050.8962</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>10050.8962</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>11672.3038</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>11672.3038</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>11672.3038</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>11672.3038</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>11672.3038</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>11672.3038</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>11513.8629</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>12392.3496</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>11955.6597</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>15451.8249</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>15191.2686</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>13708.9114</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>13205.9889</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>12420.5323</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>11283.5323</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>11241.5869</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>10142.5869</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>10142.5869</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>10431.2869</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>11669.441</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>11673.441</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>11673.441</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>11673.441</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>12108.7012</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>15399.6404</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>15400.6404</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>16041.4823</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>21578.3723</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>18431.4769</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>20179.0379</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>20038.5899</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>23905.69273548951</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>23905.69273548951</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>24045.56423548951</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>24118.93473548951</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-28 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 VALOR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>12026.7989</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>12026.7989</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -548,7 +548,7 @@
         <v>12564.9402</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>12083.7052</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>12193.0268</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,7 +756,7 @@
         <v>12195.0268</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>12195.0268</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>12490.5346</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>10560.2933</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>10912.2933</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>10050.8962</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>10050.8962</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>10050.8962</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>10050.8962</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>11672.3038</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>11672.3038</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>11672.3038</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>11672.3038</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>11513.8629</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>12392.3496</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>11955.6597</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>15451.8249</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>13205.9889</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>12420.5323</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>11283.5323</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>11241.5869</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>10142.5869</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>10142.5869</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>10431.2869</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>11669.441</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>11673.441</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>12108.7012</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>21578.3723</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>21578.3723</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>21488.2093</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>21603.324</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>19494.4026</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>18431.4769</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>20179.0379</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>20038.5899</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>23995.76573548951</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>23905.69273548951</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>23905.69273548951</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>24606.57213548951</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>24606.57213548951</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>24606.57213548951</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>23878.74603548951</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>24045.56423548951</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>24118.93473548951</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
